--- a/src/test/resources/features/DataDriven/DataLogin.xlsx
+++ b/src/test/resources/features/DataDriven/DataLogin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCC\Documents\Repos\Reto todo 1\sereniti_BDD_Base\src\test\resources\features\DataDriven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CAE223-BC1A-4543-8EE8-E1C619BBA630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AC5F54-33C7-4DE9-ACAF-48D0963F0B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,16 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>User</t>
   </si>
@@ -37,50 +28,38 @@
     <t>password</t>
   </si>
   <si>
-    <t>standard_user</t>
-  </si>
-  <si>
     <t>secret_sauce</t>
-  </si>
-  <si>
-    <t>locked_out_user</t>
   </si>
   <si>
     <t>problem_user</t>
   </si>
   <si>
-    <t>performance_glitch_user</t>
-  </si>
-  <si>
     <t>montoya_4</t>
   </si>
   <si>
-    <t>montoya_3</t>
+    <t>title</t>
   </si>
   <si>
-    <t>montoya_2</t>
+    <t>item_1</t>
   </si>
   <si>
-    <t>montoya_1</t>
+    <t>item_2</t>
   </si>
   <si>
-    <t>jhon_1</t>
+    <t>Products</t>
   </si>
   <si>
-    <t>jhon_2</t>
+    <t>Sauce Labs Backpack</t>
   </si>
   <si>
-    <t>jhon_3</t>
-  </si>
-  <si>
-    <t>jhon_4</t>
+    <t>Sauce Labs Bike Light</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +198,12 @@
       <sz val="11"/>
       <color rgb="FF484C55"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1B1B1B"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="33">
@@ -562,9 +547,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -923,94 +909,94 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C2">
         <v>21615</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C3">
         <v>21616</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C4">
         <v>21617</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C5">
         <v>21618</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/features/DataDriven/DataLogin.xlsx
+++ b/src/test/resources/features/DataDriven/DataLogin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCC\Documents\Repos\Reto todo 1\sereniti_BDD_Base\src\test\resources\features\DataDriven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CAE223-BC1A-4543-8EE8-E1C619BBA630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE15FEE-BA9A-4DB0-9FCD-D109D2EC6C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,16 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>User</t>
   </si>
@@ -52,35 +43,32 @@
     <t>performance_glitch_user</t>
   </si>
   <si>
-    <t>montoya_4</t>
-  </si>
-  <si>
-    <t>montoya_3</t>
-  </si>
-  <si>
-    <t>montoya_2</t>
-  </si>
-  <si>
-    <t>montoya_1</t>
-  </si>
-  <si>
-    <t>jhon_1</t>
-  </si>
-  <si>
-    <t>jhon_2</t>
-  </si>
-  <si>
-    <t>jhon_3</t>
-  </si>
-  <si>
     <t>jhon_4</t>
+  </si>
+  <si>
+    <t>Item_1</t>
+  </si>
+  <si>
+    <t>Item_2</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Sauce Labs Bike Light</t>
+  </si>
+  <si>
+    <t>Sauce Labs Backpack</t>
+  </si>
+  <si>
+    <t>Products</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +207,12 @@
       <sz val="11"/>
       <color rgb="FF484C55"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1B1B1B"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="33">
@@ -562,9 +556,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -923,94 +918,94 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2">
-        <v>21615</v>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3">
-        <v>21616</v>
+      <c r="C3" t="s">
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>21617</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>21618</v>
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
